--- a/biology/Écologie/Sandra_Lavorel/Sandra_Lavorel.xlsx
+++ b/biology/Écologie/Sandra_Lavorel/Sandra_Lavorel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sandra Lavorel, née en 1965, est une chercheuse française en écologie fonctionnelle. En 2023, elle obtient la médaille d'or du CNRS.
 </t>
@@ -511,12 +523,14 @@
           <t>Éléments biographiques et distinctions scientifiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sandra Lavorel est née en 1965 à Lyon[1]. Elle mène des études supérieures scientifiques à l’Institut national agronomique Paris-Grignon (aujourd'hui AgroParisTech) jusqu'en 1987, puis à la Faculté des sciences de Montpellier, un parcours qu'elle termine en 1991 en soutenant une thèse de doctorat[2], intitulée « Structure spatiale, perturbations et dynamique de la coexistence des espèces végétales », sous la direction de Francesco Di Castri.
-Après un post-doctorat en Australie à l'Université nationale australienne, elle rentre en 1994 comme chercheuse au Centre d'écologie fonctionnelle et évolutive de Montpellier[2] puis en 2003 au Centre national de la recherche scientifique, travaillant sur les politiques d'aménagement et sur la gestion de la biodiversité des territoires. Elle mène notamment ses recherches au laboratoire d'écologie alpine (CNRS/Université Grenoble-Alpes/Université Savoie-Mont-Blanc)[3],[4].
-En 2018, Sandra Lavorel a été l'une des 200 signataires d'un appel publié dans le journal Le Monde pour une action politique ferme et immédiate face au changement climatique[5].
-En 1998, Sandra Lavorel reçoit la médaille de bronze du CNRS puis en 2013 la médaille d'argent du CNRS[2]. En 2013, elle devient également membre de l’Académie des sciences[1]. En 2015, elle est titulaire de l'IAVS Alexander von Humboldt Medal. Elle obtient la médaille d'or du CNRS en septembre 2023[1],[4],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sandra Lavorel est née en 1965 à Lyon. Elle mène des études supérieures scientifiques à l’Institut national agronomique Paris-Grignon (aujourd'hui AgroParisTech) jusqu'en 1987, puis à la Faculté des sciences de Montpellier, un parcours qu'elle termine en 1991 en soutenant une thèse de doctorat, intitulée « Structure spatiale, perturbations et dynamique de la coexistence des espèces végétales », sous la direction de Francesco Di Castri.
+Après un post-doctorat en Australie à l'Université nationale australienne, elle rentre en 1994 comme chercheuse au Centre d'écologie fonctionnelle et évolutive de Montpellier puis en 2003 au Centre national de la recherche scientifique, travaillant sur les politiques d'aménagement et sur la gestion de la biodiversité des territoires. Elle mène notamment ses recherches au laboratoire d'écologie alpine (CNRS/Université Grenoble-Alpes/Université Savoie-Mont-Blanc),.
+En 2018, Sandra Lavorel a été l'une des 200 signataires d'un appel publié dans le journal Le Monde pour une action politique ferme et immédiate face au changement climatique.
+En 1998, Sandra Lavorel reçoit la médaille de bronze du CNRS puis en 2013 la médaille d'argent du CNRS. En 2013, elle devient également membre de l’Académie des sciences. En 2015, elle est titulaire de l'IAVS Alexander von Humboldt Medal. Elle obtient la médaille d'or du CNRS en septembre 2023.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Autres distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Officière de la Légion d'honneur (2022)[1],[7]. Le 30 décembre 2011, elle était nommée au grade de chevalier dans l'ordre national de la Légion d'honneur au titre de « ingénieure, directrice de recherche au CNRS ; 27 ans de services »[8].
- Officière de l'ordre national du Mérite (2016)[1],[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Officière de la Légion d'honneur (2022),. Le 30 décembre 2011, elle était nommée au grade de chevalier dans l'ordre national de la Légion d'honneur au titre de « ingénieure, directrice de recherche au CNRS ; 27 ans de services ».
+ Officière de l'ordre national du Mérite (2016),.</t>
         </is>
       </c>
     </row>
@@ -576,7 +592,9 @@
           <t>Principales publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cornelissen, J. H. C., S. Lavorel, E. Garnier, S. Díaz, N. Buchmann, D. E. Gurvich, P. B. Reich, H. ter Steege, H. D. Morgan, M. G. A. van der Heijden, J. G. Pausas and H. Poorter (2003). Handbook of protocols for standardised and easy measurement of plant functional traits worldwide. Australian Journal of Botany 51: 335-380.
 Diaz, S., S. Lavorel, F. De Bello, F. Quétier, K. Grigulis and T. M. Robson (2007). Incorporating plant functional diversity effects in ecosystem service assessments. Proceedings of the National Academy of Sciences 104: 20684-20689.
